--- a/Results/xlsx/RS230007BOS01.xlsx
+++ b/Results/xlsx/RS230007BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1364,7 +1364,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27688</t>
+          <t xml:space="preserve">      35631</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1399,19 +1399,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27689</t>
+          <t xml:space="preserve">      35632</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1446,19 +1446,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27940</t>
+          <t xml:space="preserve">      35702</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1488,24 +1488,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-03-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27941</t>
+          <t xml:space="preserve">      27688</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1535,24 +1535,24 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27594</t>
+          <t xml:space="preserve">      27689</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1582,12 +1582,12 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1599,7 +1599,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27595</t>
+          <t xml:space="preserve">      27940</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1629,24 +1629,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.06                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-04</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27768</t>
+          <t xml:space="preserve">      27941</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1676,24 +1676,24 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27769</t>
+          <t xml:space="preserve">      27594</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1723,24 +1723,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.04                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27860</t>
+          <t xml:space="preserve">      27595</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1770,24 +1770,24 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.04                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-05</t>
+          <t xml:space="preserve">      2021-02-04</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27861</t>
+          <t xml:space="preserve">      27768</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1834,7 +1834,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31665</t>
+          <t xml:space="preserve">      27769</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1864,24 +1864,24 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31744</t>
+          <t xml:space="preserve">      27860</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1916,19 +1916,19 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.05                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31745</t>
+          <t xml:space="preserve">      27861</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1963,19 +1963,19 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.05                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32024</t>
+          <t xml:space="preserve">      31665</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2010,19 +2010,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32025</t>
+          <t xml:space="preserve">      31744</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2052,24 +2052,24 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31846</t>
+          <t xml:space="preserve">      31745</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2099,12 +2099,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31847</t>
+          <t xml:space="preserve">      32024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2146,24 +2146,24 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-17</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31926</t>
+          <t xml:space="preserve">      32025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2193,12 +2193,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2210,7 +2210,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31927</t>
+          <t xml:space="preserve">      31846</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2240,24 +2240,24 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.17                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-18</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32253</t>
+          <t xml:space="preserve">      31847</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2287,24 +2287,24 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.17                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-17</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32078</t>
+          <t xml:space="preserve">      31926</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2339,19 +2339,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.18                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32079</t>
+          <t xml:space="preserve">      31927</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2386,19 +2386,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.18                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      33775</t>
+          <t xml:space="preserve">      32253</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2433,19 +2433,19 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.20                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-23</t>
+          <t xml:space="preserve">      2021-02-20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      33913</t>
+          <t xml:space="preserve">      32078</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2480,19 +2480,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.19                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      33914</t>
+          <t xml:space="preserve">      32079</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2527,19 +2527,19 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-24</t>
+          <t xml:space="preserve">      2021-02-19</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27012</t>
+          <t xml:space="preserve">      33775</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2574,19 +2574,19 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.23                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-23</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27013</t>
+          <t xml:space="preserve">      33913</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2616,24 +2616,24 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.24                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-01</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      27419</t>
+          <t xml:space="preserve">      33914</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2663,24 +2663,24 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.24                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-03</t>
+          <t xml:space="preserve">      2021-02-24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30284</t>
+          <t xml:space="preserve">      27012</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2715,19 +2715,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.01                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30285</t>
+          <t xml:space="preserve">      27013</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2762,19 +2762,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.01                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30378</t>
+          <t xml:space="preserve">      27419</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2804,24 +2804,24 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.03                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-14</t>
+          <t xml:space="preserve">      2021-02-03</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      30457</t>
+          <t xml:space="preserve">      30284</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2856,19 +2856,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.14                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-15</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      31591</t>
+          <t xml:space="preserve">      30285</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2898,24 +2898,24 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-16</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28040</t>
+          <t xml:space="preserve">      30378</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2950,19 +2950,19 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.14                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-06</t>
+          <t xml:space="preserve">      2021-02-14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28119</t>
+          <t xml:space="preserve">      30457</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2997,19 +2997,19 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.15                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-15</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28120</t>
+          <t xml:space="preserve">      31591</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3039,24 +3039,24 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.16                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-16</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28213</t>
+          <t xml:space="preserve">      28040</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3086,24 +3086,24 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.06                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-07</t>
+          <t xml:space="preserve">      2021-02-06</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28214</t>
+          <t xml:space="preserve">      28119</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3133,12 +3133,12 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3150,7 +3150,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28293</t>
+          <t xml:space="preserve">      28120</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3180,24 +3180,24 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28294</t>
+          <t xml:space="preserve">      28213</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3227,24 +3227,24 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.07                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      28389</t>
+          <t xml:space="preserve">      28214</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3279,19 +3279,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.07                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-08</t>
+          <t xml:space="preserve">      2021-02-07</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32174</t>
+          <t xml:space="preserve">      28293</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3321,24 +3321,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.08                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-19</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32254</t>
+          <t xml:space="preserve">      28294</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3373,19 +3373,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32357</t>
+          <t xml:space="preserve">      28389</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3420,19 +3420,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.08                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-20</t>
+          <t xml:space="preserve">      2021-02-08</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32436</t>
+          <t xml:space="preserve">      35074</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3462,24 +3462,24 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32437</t>
+          <t xml:space="preserve">      35140</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3509,24 +3509,24 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32542</t>
+          <t xml:space="preserve">      35141</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3561,19 +3561,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-21</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32621</t>
+          <t xml:space="preserve">      35232</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3603,24 +3603,24 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-26</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32622</t>
+          <t xml:space="preserve">      35311</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3650,24 +3650,24 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">      32721</t>
+          <t xml:space="preserve">      35312</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3697,69 +3697,680 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">      2021-02-22</t>
+          <t xml:space="preserve">      2021-02-27</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t xml:space="preserve">      35407</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35408</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35474</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35565</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32174</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.19                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32254</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32357</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.20                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32436</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.21                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32437</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32542</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.21                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32621</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32622</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      32721</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.22                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t xml:space="preserve">      32722</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">         NULL</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       NULL</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t xml:space="preserve">No PL global price change data for the report date: 2021.02.22                                                                                                                                                                                                  </t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t xml:space="preserve">      2021-02-22</t>
         </is>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73"/>
+    <row r="85"/>
+    <row r="86"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
